--- a/data/trans_bre/P1429-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P1429-Clase-trans_bre.xlsx
@@ -660,26 +660,26 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.6260055664928091</v>
+        <v>0.5233839500392259</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.3039338674968624</v>
+        <v>0.2671544915471263</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3296831419280361</v>
+        <v>0.3490519522737777</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.9963600501471819</v>
+        <v>0.9007713754003999</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.09107103614895158</v>
+        <v>-0.02409170128228742</v>
       </c>
       <c r="H5" s="6" t="inlineStr"/>
       <c r="I5" s="6" t="n">
-        <v>-0.5056762028385732</v>
+        <v>-0.3247946395547966</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.2925439220879003</v>
+        <v>0.4455964798109199</v>
       </c>
     </row>
     <row r="6">
@@ -690,24 +690,24 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.264265033555335</v>
+        <v>5.099642821058226</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.946079270951064</v>
+        <v>3.96375875891276</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.834454121359149</v>
+        <v>3.847929348758728</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.526252255080598</v>
+        <v>3.602498358671778</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>14.99781516056425</v>
+        <v>12.89242112631629</v>
       </c>
       <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="inlineStr"/>
       <c r="J6" s="6" t="n">
-        <v>13.20987775921796</v>
+        <v>11.17011215221393</v>
       </c>
     </row>
     <row r="7">
@@ -731,7 +731,7 @@
         <v>1.394907872549386</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3.038527138405772</v>
+        <v>3.038527138405773</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.810025928778115</v>
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.2080623038918767</v>
+        <v>-0.2017282189194314</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.3131664561657068</v>
+        <v>0.3081067291177002</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3271376535339445</v>
+        <v>0.3364210300693884</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.014515414336378</v>
+        <v>1.784048855125268</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5772459476111013</v>
+        <v>-0.5900022376433647</v>
       </c>
       <c r="H8" s="6" t="inlineStr"/>
       <c r="I8" s="6" t="inlineStr"/>
@@ -784,19 +784,19 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.157737864332573</v>
+        <v>3.329489239626326</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.020365371435484</v>
+        <v>3.00558224618887</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.283735115626722</v>
+        <v>3.560695140704945</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.664977146780286</v>
+        <v>4.536922528251688</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>11.81566873972492</v>
+        <v>15.87463383824477</v>
       </c>
       <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="inlineStr"/>
@@ -846,26 +846,26 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.012335007180973</v>
+        <v>0.9322088203096386</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.44554295733737</v>
+        <v>0.3715259836666044</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.835170514801414</v>
+        <v>1.394361832904879</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.802194264498727</v>
+        <v>3.779941762333314</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1875360664139558</v>
+        <v>0.202323284884563</v>
       </c>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="n">
-        <v>0.1231033651745509</v>
+        <v>0.6578648663122876</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1.758125849099421</v>
+        <v>2.014128078256915</v>
       </c>
     </row>
     <row r="12">
@@ -876,24 +876,24 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>8.267960915682917</v>
+        <v>7.962124908815257</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>4.898365214067047</v>
+        <v>5.028806767046495</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.12340887536587</v>
+        <v>10.13195167621226</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>12.86834343844895</v>
+        <v>12.30316911698642</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>19.89145994906133</v>
+        <v>15.64676715095097</v>
       </c>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>24.47509666536619</v>
+        <v>22.48782833842843</v>
       </c>
     </row>
     <row r="13">
@@ -917,7 +917,7 @@
         <v>1.887213316925816</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1.801786964766787</v>
+        <v>1.801786964766785</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.470082886578319</v>
@@ -929,7 +929,7 @@
         <v>10.76548377121958</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>1.257715317423768</v>
+        <v>1.257715317423767</v>
       </c>
     </row>
     <row r="14">
@@ -940,28 +940,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.6333208195862545</v>
+        <v>0.6677776586008235</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.6691931440358267</v>
+        <v>0.6687262501732985</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.015329487086153</v>
+        <v>1.032218866262713</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3911396558658375</v>
+        <v>0.3676565512297643</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2864621238180389</v>
+        <v>0.3317330990115019</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7638591269935164</v>
+        <v>0.7149350150187637</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1.47342778617239</v>
+        <v>1.444634263610602</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.04314960232420666</v>
+        <v>0.05001079313917714</v>
       </c>
     </row>
     <row r="15">
@@ -972,24 +972,24 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.63541009521163</v>
+        <v>3.65865969119391</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.67116305834314</v>
+        <v>2.579392375733665</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.088603801478542</v>
+        <v>3.076897440701682</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>2.97331424179557</v>
+        <v>2.838822403978938</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.561946221222222</v>
+        <v>3.698672794888155</v>
       </c>
       <c r="H15" s="6" t="inlineStr"/>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>3.287981673322527</v>
+        <v>2.952239492843892</v>
       </c>
     </row>
     <row r="16">
@@ -1036,26 +1036,26 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.4466293784732499</v>
+        <v>0.8428306264634264</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.820726157948358</v>
+        <v>3.633425306362354</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8105489627899775</v>
+        <v>0.7931229710396978</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>4.512572260608142</v>
+        <v>4.474790517635372</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.01802418544453166</v>
+        <v>0.201474756613919</v>
       </c>
       <c r="H17" s="6" t="inlineStr"/>
       <c r="I17" s="6" t="n">
-        <v>0.5488272841680152</v>
+        <v>0.4613129925588847</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>3.956070381982529</v>
+        <v>4.316764084845264</v>
       </c>
     </row>
     <row r="18">
@@ -1066,26 +1066,26 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>4.344905029019973</v>
+        <v>4.484525277007501</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.277742898963542</v>
+        <v>7.021333139950689</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3.672212246591623</v>
+        <v>3.587276808049225</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.13054554337833</v>
+        <v>7.14444392639869</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>11.59083589525572</v>
+        <v>12.2947646735726</v>
       </c>
       <c r="H18" s="6" t="inlineStr"/>
       <c r="I18" s="6" t="n">
-        <v>10.98213195607839</v>
+        <v>11.03986589245163</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>48.93187585430097</v>
+        <v>47.58868083283996</v>
       </c>
     </row>
     <row r="19">
@@ -1109,7 +1109,7 @@
         <v>5.660424942708727</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5.888998208597321</v>
+        <v>5.88899820859732</v>
       </c>
       <c r="G19" s="6" t="inlineStr">
         <is>
@@ -1127,7 +1127,7 @@
         </is>
       </c>
       <c r="J19" s="6" t="n">
-        <v>26.97756885278412</v>
+        <v>26.97756885278411</v>
       </c>
     </row>
     <row r="20">
@@ -1138,16 +1138,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>4.569121772627637</v>
+        <v>4.792819551889217</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>4.971935573985363</v>
+        <v>5.004459975783894</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>4.436381245673808</v>
+        <v>4.309255019196693</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>4.672965266199588</v>
+        <v>4.545369081441252</v>
       </c>
       <c r="G20" s="6" t="inlineStr"/>
       <c r="H20" s="6" t="inlineStr"/>
@@ -1162,16 +1162,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>7.262410971574022</v>
+        <v>7.405650968486661</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>8.01937615061318</v>
+        <v>7.954846838373336</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7.295661223157687</v>
+        <v>7.489751184002312</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7.284511452251934</v>
+        <v>7.301899770767639</v>
       </c>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="inlineStr"/>
@@ -1199,7 +1199,7 @@
         <v>3.082568538786524</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3.931089161244399</v>
+        <v>3.931089161244398</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>3.15799491790535</v>
@@ -1211,7 +1211,7 @@
         <v>8.86575005305823</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>4.702343895034835</v>
+        <v>4.702343895034833</v>
       </c>
     </row>
     <row r="23">
@@ -1222,28 +1222,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.496387031703544</v>
+        <v>2.441924295418975</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.216744608135742</v>
+        <v>3.133641942210143</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2.425281759277012</v>
+        <v>2.381678737673463</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.264457198074058</v>
+        <v>3.288017395417805</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1.782412270611851</v>
+        <v>1.800545356869162</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>6.574015470323515</v>
+        <v>7.298864440466984</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>4.347688032928397</v>
+        <v>4.618686236150319</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>2.678436578981709</v>
+        <v>2.629971044805984</v>
       </c>
     </row>
     <row r="24">
@@ -1254,28 +1254,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.140574574297935</v>
+        <v>4.029285663237103</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.549565592386757</v>
+        <v>4.659775283711041</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>3.770808580827646</v>
+        <v>3.781221213420252</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.537328974843306</v>
+        <v>4.561613786403173</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>4.991271139981137</v>
+        <v>5.044948652766291</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>60.24124300770555</v>
+        <v>62.44546303295402</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>18.49555311741153</v>
+        <v>17.47526029702398</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>7.306353922149573</v>
+        <v>7.531450831627188</v>
       </c>
     </row>
     <row r="25">
